--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>39.49624286189</v>
+        <v>164.846627695064</v>
       </c>
       <c r="R2">
-        <v>355.46618575701</v>
+        <v>1483.619649255576</v>
       </c>
       <c r="S2">
-        <v>0.004875294589969988</v>
+        <v>0.02241417453014692</v>
       </c>
       <c r="T2">
-        <v>0.004875294589969988</v>
+        <v>0.02241417453014692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>281.89604208223</v>
+        <v>648.2074512486408</v>
       </c>
       <c r="R3">
-        <v>2537.06437874007</v>
+        <v>5833.867061237768</v>
       </c>
       <c r="S3">
-        <v>0.03479637933418568</v>
+        <v>0.08813668284985959</v>
       </c>
       <c r="T3">
-        <v>0.03479637933418569</v>
+        <v>0.08813668284985961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>275.66733349122</v>
+        <v>599.9751604203467</v>
       </c>
       <c r="R4">
-        <v>2481.00600142098</v>
+        <v>5399.776443783121</v>
       </c>
       <c r="S4">
-        <v>0.0340275267270545</v>
+        <v>0.08157854453832553</v>
       </c>
       <c r="T4">
-        <v>0.0340275267270545</v>
+        <v>0.08157854453832555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H5">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>80.41043521228001</v>
+        <v>155.8365358660133</v>
       </c>
       <c r="R5">
-        <v>723.69391691052</v>
+        <v>1402.52882279412</v>
       </c>
       <c r="S5">
-        <v>0.009925616498217002</v>
+        <v>0.02118907351587219</v>
       </c>
       <c r="T5">
-        <v>0.009925616498217002</v>
+        <v>0.02118907351587219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H6">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>119.66875374557</v>
+        <v>300.2737085636649</v>
       </c>
       <c r="R6">
-        <v>1077.01878371013</v>
+        <v>2702.463377072984</v>
       </c>
       <c r="S6">
-        <v>0.01477154244175391</v>
+        <v>0.04082817710417733</v>
       </c>
       <c r="T6">
-        <v>0.01477154244175391</v>
+        <v>0.04082817710417733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H7">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>315.00089161135</v>
+        <v>813.6076410194631</v>
       </c>
       <c r="R7">
-        <v>2835.00802450215</v>
+        <v>7322.468769175169</v>
       </c>
       <c r="S7">
-        <v>0.03888274001349021</v>
+        <v>0.1106261251434591</v>
       </c>
       <c r="T7">
-        <v>0.03888274001349021</v>
+        <v>0.1106261251434592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>29.58872329797733</v>
+        <v>53.706329027556</v>
       </c>
       <c r="R8">
-        <v>266.298509681796</v>
+        <v>483.356961248004</v>
       </c>
       <c r="S8">
-        <v>0.003652340885262748</v>
+        <v>0.007302442573614022</v>
       </c>
       <c r="T8">
-        <v>0.003652340885262748</v>
+        <v>0.007302442573614024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>211.1832261395747</v>
@@ -1013,10 +1013,10 @@
         <v>1900.649035256172</v>
       </c>
       <c r="S9">
-        <v>0.02606780709473814</v>
+        <v>0.02871455579478406</v>
       </c>
       <c r="T9">
-        <v>0.02606780709473815</v>
+        <v>0.02871455579478407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>206.516971284712</v>
+        <v>195.46935126572</v>
       </c>
       <c r="R10">
-        <v>1858.652741562408</v>
+        <v>1759.22416139148</v>
       </c>
       <c r="S10">
-        <v>0.02549181896521193</v>
+        <v>0.02657794227170369</v>
       </c>
       <c r="T10">
-        <v>0.02549181896521193</v>
+        <v>0.0265779422717037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>60.23970751055467</v>
+        <v>50.77087949422</v>
       </c>
       <c r="R11">
-        <v>542.157367594992</v>
+        <v>456.93791544798</v>
       </c>
       <c r="S11">
-        <v>0.007435803986585268</v>
+        <v>0.00690330988230813</v>
       </c>
       <c r="T11">
-        <v>0.007435803986585268</v>
+        <v>0.006903309882308132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>89.65018911730533</v>
+        <v>97.82789503147066</v>
       </c>
       <c r="R12">
-        <v>806.851702055748</v>
+        <v>880.451055283236</v>
       </c>
       <c r="S12">
-        <v>0.01106614326637929</v>
+        <v>0.01330164616535818</v>
       </c>
       <c r="T12">
-        <v>0.01106614326637929</v>
+        <v>0.01330164616535818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>235.9838188431267</v>
+        <v>265.0699033331413</v>
       </c>
       <c r="R13">
-        <v>2123.85436958814</v>
+        <v>2385.629129998272</v>
       </c>
       <c r="S13">
-        <v>0.02912911588450008</v>
+        <v>0.0360415202850771</v>
       </c>
       <c r="T13">
-        <v>0.02912911588450009</v>
+        <v>0.03604152028507711</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>0.6097034614877778</v>
+        <v>1.83696591938</v>
       </c>
       <c r="R14">
-        <v>5.48733115339</v>
+        <v>16.53269327442</v>
       </c>
       <c r="S14">
-        <v>7.525991770081739E-05</v>
+        <v>0.0002497720171690718</v>
       </c>
       <c r="T14">
-        <v>7.525991770081739E-05</v>
+        <v>0.0002497720171690719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>4.351628919192222</v>
+        <v>7.223289995562222</v>
       </c>
       <c r="R15">
-        <v>39.16466027273</v>
+        <v>65.00960996006</v>
       </c>
       <c r="S15">
-        <v>0.0005371516729193914</v>
+        <v>0.0009821498013407265</v>
       </c>
       <c r="T15">
-        <v>0.0005371516729193915</v>
+        <v>0.0009821498013407267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>4.255476350913334</v>
+        <v>6.685814187266668</v>
       </c>
       <c r="R16">
-        <v>38.29928715822</v>
+        <v>60.17232768540001</v>
       </c>
       <c r="S16">
-        <v>0.0005252828959934194</v>
+        <v>0.0009090692855830535</v>
       </c>
       <c r="T16">
-        <v>0.0005252828959934194</v>
+        <v>0.0009090692855830539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>1.241295807808889</v>
+        <v>1.736562096433334</v>
       </c>
       <c r="R17">
-        <v>11.17166227028</v>
+        <v>15.6290588679</v>
       </c>
       <c r="S17">
-        <v>0.0001532217319385177</v>
+        <v>0.0002361201224200721</v>
       </c>
       <c r="T17">
-        <v>0.0001532217319385177</v>
+        <v>0.0002361201224200722</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>1.847326431674444</v>
+        <v>3.346095560642222</v>
       </c>
       <c r="R18">
-        <v>16.62593788507</v>
+        <v>30.11486004578</v>
       </c>
       <c r="S18">
-        <v>0.000228028285873772</v>
+        <v>0.0004549681782360798</v>
       </c>
       <c r="T18">
-        <v>0.000228028285873772</v>
+        <v>0.0004549681782360799</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>4.862668448205556</v>
+        <v>9.066424525617778</v>
       </c>
       <c r="R19">
-        <v>43.76401603385001</v>
+        <v>81.59782073056</v>
       </c>
       <c r="S19">
-        <v>0.0006002328186316976</v>
+        <v>0.001232760563701154</v>
       </c>
       <c r="T19">
-        <v>0.0006002328186316977</v>
+        <v>0.001232760563701154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H20">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>218.0129492050291</v>
+        <v>227.984613109221</v>
       </c>
       <c r="R20">
-        <v>1962.116542845262</v>
+        <v>2051.861517982989</v>
       </c>
       <c r="S20">
-        <v>0.0269108470777673</v>
+        <v>0.03099903819610325</v>
       </c>
       <c r="T20">
-        <v>0.0269108470777673</v>
+        <v>0.03099903819610326</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H21">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>1556.021106070115</v>
+        <v>896.4776959878365</v>
       </c>
       <c r="R21">
-        <v>14004.18995463103</v>
+        <v>8068.299263890528</v>
       </c>
       <c r="S21">
-        <v>0.1920704535575598</v>
+        <v>0.1218939557406367</v>
       </c>
       <c r="T21">
-        <v>0.1920704535575599</v>
+        <v>0.1218939557406368</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H22">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>1521.639629978497</v>
+        <v>829.7719324692702</v>
       </c>
       <c r="R22">
-        <v>13694.75666980647</v>
+        <v>7467.947392223431</v>
       </c>
       <c r="S22">
-        <v>0.1878265100267593</v>
+        <v>0.1128239817497971</v>
       </c>
       <c r="T22">
-        <v>0.1878265100267593</v>
+        <v>0.1128239817497972</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H23">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>443.8527530020916</v>
+        <v>215.5235617158951</v>
       </c>
       <c r="R23">
-        <v>3994.674777018824</v>
+        <v>1939.712055443055</v>
       </c>
       <c r="S23">
-        <v>0.05478781698353252</v>
+        <v>0.02930471065865553</v>
       </c>
       <c r="T23">
-        <v>0.05478781698353252</v>
+        <v>0.02930471065865553</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H24">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>660.5523979329117</v>
+        <v>415.2816847451224</v>
       </c>
       <c r="R24">
-        <v>5944.971581396206</v>
+        <v>3737.535162706101</v>
       </c>
       <c r="S24">
-        <v>0.08153655382601938</v>
+        <v>0.05646579666930814</v>
       </c>
       <c r="T24">
-        <v>0.08153655382601938</v>
+        <v>0.05646579666930814</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H25">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>1738.754585405592</v>
+        <v>1125.227891247195</v>
       </c>
       <c r="R25">
-        <v>15648.79126865033</v>
+        <v>10127.05102122475</v>
       </c>
       <c r="S25">
-        <v>0.2146265115179553</v>
+        <v>0.1529970900421337</v>
       </c>
       <c r="T25">
-        <v>0.2146265115179553</v>
+        <v>0.1529970900421337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.585256</v>
+      </c>
+      <c r="I26">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J26">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>18.153033</v>
+      </c>
+      <c r="N26">
+        <v>54.459099</v>
+      </c>
+      <c r="O26">
+        <v>0.06144694972193577</v>
+      </c>
+      <c r="P26">
+        <v>0.06144694972193578</v>
+      </c>
+      <c r="Q26">
+        <v>3.541390493816</v>
+      </c>
+      <c r="R26">
+        <v>31.872514444344</v>
+      </c>
+      <c r="S26">
+        <v>0.0004815224049025044</v>
+      </c>
+      <c r="T26">
+        <v>0.0004815224049025046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.585256</v>
+      </c>
+      <c r="I27">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J27">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N27">
+        <v>214.143257</v>
+      </c>
+      <c r="O27">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="P27">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="Q27">
+        <v>13.92540289097689</v>
+      </c>
+      <c r="R27">
+        <v>125.328626018792</v>
+      </c>
+      <c r="S27">
+        <v>0.001893435220151091</v>
+      </c>
+      <c r="T27">
+        <v>0.001893435220151092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.585256</v>
+      </c>
+      <c r="I28">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J28">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>66.06971</v>
+      </c>
+      <c r="N28">
+        <v>198.20913</v>
+      </c>
+      <c r="O28">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="P28">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="Q28">
+        <v>12.88923139858667</v>
+      </c>
+      <c r="R28">
+        <v>116.00308258728</v>
+      </c>
+      <c r="S28">
+        <v>0.001752547117080162</v>
+      </c>
+      <c r="T28">
+        <v>0.001752547117080163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.585256</v>
+      </c>
+      <c r="I29">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J29">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.160835</v>
+      </c>
+      <c r="N29">
+        <v>51.482505</v>
+      </c>
+      <c r="O29">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="P29">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="Q29">
+        <v>3.347827216253334</v>
+      </c>
+      <c r="R29">
+        <v>30.13044494628</v>
+      </c>
+      <c r="S29">
+        <v>0.0004552036312243287</v>
+      </c>
+      <c r="T29">
+        <v>0.0004552036312243288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.585256</v>
+      </c>
+      <c r="I30">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J30">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>33.06636366666667</v>
+      </c>
+      <c r="N30">
+        <v>99.199091</v>
+      </c>
+      <c r="O30">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="P30">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="Q30">
+        <v>6.450762578032889</v>
+      </c>
+      <c r="R30">
+        <v>58.056863202296</v>
+      </c>
+      <c r="S30">
+        <v>0.0008771093488429249</v>
+      </c>
+      <c r="T30">
+        <v>0.0008771093488429251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.585256</v>
+      </c>
+      <c r="I31">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J31">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>89.59507733333334</v>
+      </c>
+      <c r="N31">
+        <v>268.785232</v>
+      </c>
+      <c r="O31">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="P31">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="Q31">
+        <v>17.47868552659911</v>
+      </c>
+      <c r="R31">
+        <v>157.308169739392</v>
+      </c>
+      <c r="S31">
+        <v>0.002376574598028469</v>
+      </c>
+      <c r="T31">
+        <v>0.002376574598028469</v>
       </c>
     </row>
   </sheetData>
